--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-P2ry12.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-P2ry12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H2">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>8.290760666666666</v>
+        <v>0.04910833333333333</v>
       </c>
       <c r="N2">
-        <v>24.872282</v>
+        <v>0.147325</v>
       </c>
       <c r="O2">
-        <v>0.2769524410728061</v>
+        <v>0.002188553694087003</v>
       </c>
       <c r="P2">
-        <v>0.2769524410728061</v>
+        <v>0.002188553694087002</v>
       </c>
       <c r="Q2">
-        <v>1346.413703861918</v>
+        <v>9.892370029455556</v>
       </c>
       <c r="R2">
-        <v>12117.72333475726</v>
+        <v>89.0313302651</v>
       </c>
       <c r="S2">
-        <v>0.1082986983006358</v>
+        <v>0.001057837479049161</v>
       </c>
       <c r="T2">
-        <v>0.1082986983006358</v>
+        <v>0.001057837479049161</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H3">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>21.644923</v>
+        <v>0.2380986666666667</v>
       </c>
       <c r="N3">
-        <v>64.934769</v>
+        <v>0.714296</v>
       </c>
       <c r="O3">
-        <v>0.7230475589271939</v>
+        <v>0.01061106498877699</v>
       </c>
       <c r="P3">
-        <v>0.7230475589271939</v>
+        <v>0.01061106498877699</v>
       </c>
       <c r="Q3">
-        <v>3515.120278819131</v>
+        <v>47.96253414260978</v>
       </c>
       <c r="R3">
-        <v>31636.08250937218</v>
+        <v>431.6628072834881</v>
       </c>
       <c r="S3">
-        <v>0.2827384699623652</v>
+        <v>0.005128858509654844</v>
       </c>
       <c r="T3">
-        <v>0.2827384699623652</v>
+        <v>0.005128858509654844</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>65.41736466666667</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H4">
-        <v>196.252094</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I4">
-        <v>0.1575168212364948</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J4">
-        <v>0.1575168212364948</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>8.290760666666666</v>
+        <v>22.15150833333333</v>
       </c>
       <c r="N4">
-        <v>24.872282</v>
+        <v>66.45452499999999</v>
       </c>
       <c r="O4">
-        <v>0.2769524410728061</v>
+        <v>0.9872003813171361</v>
       </c>
       <c r="P4">
-        <v>0.2769524410728061</v>
+        <v>0.9872003813171361</v>
       </c>
       <c r="Q4">
-        <v>542.3597138953897</v>
+        <v>4462.194138345189</v>
       </c>
       <c r="R4">
-        <v>4881.237425058508</v>
+        <v>40159.7472451067</v>
       </c>
       <c r="S4">
-        <v>0.04362466815147607</v>
+        <v>0.4771633273199353</v>
       </c>
       <c r="T4">
-        <v>0.04362466815147607</v>
+        <v>0.4771633273199353</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,45 +729,45 @@
         <v>196.252094</v>
       </c>
       <c r="I5">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J5">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>21.644923</v>
+        <v>0.04910833333333333</v>
       </c>
       <c r="N5">
-        <v>64.934769</v>
+        <v>0.147325</v>
       </c>
       <c r="O5">
-        <v>0.7230475589271939</v>
+        <v>0.002188553694087003</v>
       </c>
       <c r="P5">
-        <v>0.7230475589271939</v>
+        <v>0.002188553694087002</v>
       </c>
       <c r="Q5">
-        <v>1415.953821072921</v>
+        <v>3.212537749838889</v>
       </c>
       <c r="R5">
-        <v>12743.58438965629</v>
+        <v>28.91283974855</v>
       </c>
       <c r="S5">
-        <v>0.1138921530850188</v>
+        <v>0.0003435317142930277</v>
       </c>
       <c r="T5">
-        <v>0.1138921530850188</v>
+        <v>0.0003435317142930276</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,51 +785,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.180387</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H6">
-        <v>183.541161</v>
+        <v>196.252094</v>
       </c>
       <c r="I6">
-        <v>0.1473147096548978</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J6">
-        <v>0.1473147096548978</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>8.290760666666666</v>
+        <v>0.2380986666666667</v>
       </c>
       <c r="N6">
-        <v>24.872282</v>
+        <v>0.714296</v>
       </c>
       <c r="O6">
-        <v>0.2769524410728061</v>
+        <v>0.01061106498877699</v>
       </c>
       <c r="P6">
-        <v>0.2769524410728061</v>
+        <v>0.01061106498877699</v>
       </c>
       <c r="Q6">
-        <v>507.2319461110446</v>
+        <v>15.57578730398045</v>
       </c>
       <c r="R6">
-        <v>4565.087514999402</v>
+        <v>140.182085735824</v>
       </c>
       <c r="S6">
-        <v>0.04079916844485563</v>
+        <v>0.001665591918497557</v>
       </c>
       <c r="T6">
-        <v>0.04079916844485564</v>
+        <v>0.001665591918497557</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>61.180387</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H7">
-        <v>183.541161</v>
+        <v>196.252094</v>
       </c>
       <c r="I7">
-        <v>0.1473147096548978</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J7">
-        <v>0.1473147096548978</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.644923</v>
+        <v>22.15150833333333</v>
       </c>
       <c r="N7">
-        <v>64.934769</v>
+        <v>66.45452499999999</v>
       </c>
       <c r="O7">
-        <v>0.7230475589271939</v>
+        <v>0.9872003813171361</v>
       </c>
       <c r="P7">
-        <v>0.7230475589271939</v>
+        <v>0.9872003813171361</v>
       </c>
       <c r="Q7">
-        <v>1324.244765725201</v>
+        <v>1449.093298558372</v>
       </c>
       <c r="R7">
-        <v>11918.20289152681</v>
+        <v>13041.83968702535</v>
       </c>
       <c r="S7">
-        <v>0.1065155412100422</v>
+        <v>0.1549583363025886</v>
       </c>
       <c r="T7">
-        <v>0.1065155412100422</v>
+        <v>0.1549583363025886</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>126.3069433333333</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H8">
-        <v>378.92083</v>
+        <v>181.304524</v>
       </c>
       <c r="I8">
-        <v>0.3041313008456065</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J8">
-        <v>0.3041313008456065</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,33 +927,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>8.290760666666666</v>
+        <v>0.04910833333333333</v>
       </c>
       <c r="N8">
-        <v>24.872282</v>
+        <v>0.147325</v>
       </c>
       <c r="O8">
-        <v>0.2769524410728061</v>
+        <v>0.002188553694087003</v>
       </c>
       <c r="P8">
-        <v>0.2769524410728061</v>
+        <v>0.002188553694087002</v>
       </c>
       <c r="Q8">
-        <v>1047.180637714896</v>
+        <v>2.967854333144444</v>
       </c>
       <c r="R8">
-        <v>9424.625739434059</v>
+        <v>26.7106889983</v>
       </c>
       <c r="S8">
-        <v>0.0842299061758387</v>
+        <v>0.000317366570054541</v>
       </c>
       <c r="T8">
-        <v>0.08422990617583871</v>
+        <v>0.000317366570054541</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>60.43484133333334</v>
+      </c>
+      <c r="H9">
+        <v>181.304524</v>
+      </c>
+      <c r="I9">
+        <v>0.1450120099461104</v>
+      </c>
+      <c r="J9">
+        <v>0.1450120099461104</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.2380986666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.714296</v>
+      </c>
+      <c r="O9">
+        <v>0.01061106498877699</v>
+      </c>
+      <c r="P9">
+        <v>0.01061106498877699</v>
+      </c>
+      <c r="Q9">
+        <v>14.38945514167822</v>
+      </c>
+      <c r="R9">
+        <v>129.505096275104</v>
+      </c>
+      <c r="S9">
+        <v>0.001538731861691352</v>
+      </c>
+      <c r="T9">
+        <v>0.001538731861691352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>126.3069433333333</v>
-      </c>
-      <c r="H9">
-        <v>378.92083</v>
-      </c>
-      <c r="I9">
-        <v>0.3041313008456065</v>
-      </c>
-      <c r="J9">
-        <v>0.3041313008456065</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>21.644923</v>
-      </c>
-      <c r="N9">
-        <v>64.934769</v>
-      </c>
-      <c r="O9">
-        <v>0.7230475589271939</v>
-      </c>
-      <c r="P9">
-        <v>0.7230475589271939</v>
-      </c>
-      <c r="Q9">
-        <v>2733.904062815364</v>
-      </c>
-      <c r="R9">
-        <v>24605.13656533827</v>
-      </c>
-      <c r="S9">
-        <v>0.2199013946697678</v>
-      </c>
-      <c r="T9">
-        <v>0.2199013946697678</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>60.43484133333334</v>
+      </c>
+      <c r="H10">
+        <v>181.304524</v>
+      </c>
+      <c r="I10">
+        <v>0.1450120099461104</v>
+      </c>
+      <c r="J10">
+        <v>0.1450120099461104</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>22.15150833333333</v>
+      </c>
+      <c r="N10">
+        <v>66.45452499999999</v>
+      </c>
+      <c r="O10">
+        <v>0.9872003813171361</v>
+      </c>
+      <c r="P10">
+        <v>0.9872003813171361</v>
+      </c>
+      <c r="Q10">
+        <v>1338.722891419011</v>
+      </c>
+      <c r="R10">
+        <v>12048.5060227711</v>
+      </c>
+      <c r="S10">
+        <v>0.1431559115143645</v>
+      </c>
+      <c r="T10">
+        <v>0.1431559115143645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>89.46554166666668</v>
+      </c>
+      <c r="H11">
+        <v>268.396625</v>
+      </c>
+      <c r="I11">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="J11">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.04910833333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.147325</v>
+      </c>
+      <c r="O11">
+        <v>0.002188553694087003</v>
+      </c>
+      <c r="P11">
+        <v>0.002188553694087002</v>
+      </c>
+      <c r="Q11">
+        <v>4.393503642013889</v>
+      </c>
+      <c r="R11">
+        <v>39.541532778125</v>
+      </c>
+      <c r="S11">
+        <v>0.0004698179306902728</v>
+      </c>
+      <c r="T11">
+        <v>0.0004698179306902727</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>89.46554166666668</v>
+      </c>
+      <c r="H12">
+        <v>268.396625</v>
+      </c>
+      <c r="I12">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="J12">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.2380986666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.714296</v>
+      </c>
+      <c r="O12">
+        <v>0.01061106498877699</v>
+      </c>
+      <c r="P12">
+        <v>0.01061106498877699</v>
+      </c>
+      <c r="Q12">
+        <v>21.30162618344445</v>
+      </c>
+      <c r="R12">
+        <v>191.714635651</v>
+      </c>
+      <c r="S12">
+        <v>0.002277882698933237</v>
+      </c>
+      <c r="T12">
+        <v>0.002277882698933237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>89.46554166666668</v>
+      </c>
+      <c r="H13">
+        <v>268.396625</v>
+      </c>
+      <c r="I13">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="J13">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>22.15150833333333</v>
+      </c>
+      <c r="N13">
+        <v>66.45452499999999</v>
+      </c>
+      <c r="O13">
+        <v>0.9872003813171361</v>
+      </c>
+      <c r="P13">
+        <v>0.9872003813171361</v>
+      </c>
+      <c r="Q13">
+        <v>1981.796691775347</v>
+      </c>
+      <c r="R13">
+        <v>17836.17022597812</v>
+      </c>
+      <c r="S13">
+        <v>0.2119228061802477</v>
+      </c>
+      <c r="T13">
+        <v>0.2119228061802477</v>
       </c>
     </row>
   </sheetData>
